--- a/results/I3_N5_M3_T30_C100_DepCentral_s0_P6_res.xlsx
+++ b/results/I3_N5_M3_T30_C100_DepCentral_s0_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1875.173966114658</v>
+        <v>301.9875326957088</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.006999969482421875</v>
+        <v>0.006000041961669922</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.35362090348024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.720054322421507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1515.020000000008</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>341.8</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,105 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -755,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -766,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -777,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -857,7 +758,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -890,7 +791,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -981,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>23.18449368032031</v>
       </c>
     </row>
     <row r="5">
@@ -1005,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.978580466864702</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -1013,7 +914,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>22.12249852767911</v>
+        <v>29.46290845299062</v>
       </c>
     </row>
     <row r="9">
@@ -1021,7 +922,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>29.46290845299062</v>
+        <v>27.0214195331353</v>
       </c>
     </row>
     <row r="10">
@@ -1029,7 +930,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>27.0214195331353</v>
+        <v>22.12249852767911</v>
       </c>
     </row>
   </sheetData>
@@ -1043,7 +944,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1071,188 +972,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>7</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>7</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>7</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>8</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>5</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>4</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>5</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1354,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>176.6900000000007</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8">
@@ -1365,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>173.05</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
@@ -1376,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>182.4850000000007</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10">
@@ -1387,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>180.6550000000007</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11">
@@ -1398,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>176.3400000000007</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
@@ -1409,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>167.6400000000006</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13">
@@ -1420,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>171.2250000000006</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14">
@@ -1431,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>173.3450000000006</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15">
@@ -1442,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>178.0200000000006</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16">
@@ -1453,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>175.2100000000006</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17">
@@ -1464,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>99.54499999999936</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1475,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>92.51499999999935</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19">
@@ -1486,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>100.0699999999993</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
@@ -1497,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>90.09499999999935</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
@@ -1508,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>102.7799999999993</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22">
@@ -1519,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>108.515</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23">
@@ -1530,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>96.92</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
@@ -1541,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>106.645</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25">
@@ -1552,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>103.745</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26">
@@ -1563,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>100.49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27">
@@ -1574,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>61.37999999999978</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -1585,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>61.35999999999978</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29">
@@ -1596,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>65.61999999999978</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30">
@@ -1607,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>66.05999999999977</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
@@ -1618,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>64.25999999999978</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32">
@@ -1629,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>99.54499999999936</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33">
@@ -1640,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>92.51499999999935</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34">
@@ -1651,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>100.0699999999993</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35">
@@ -1662,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>90.09499999999935</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36">
@@ -1673,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>102.7799999999993</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37">
@@ -1684,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>176.6900000000007</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38">
@@ -1695,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>173.05</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39">
@@ -1706,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>182.4850000000007</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40">
@@ -1717,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>180.6550000000007</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41">
@@ -1728,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>176.3400000000007</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42">
@@ -1739,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>167.6400000000006</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43">
@@ -1750,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>171.2250000000006</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44">
@@ -1761,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>173.3450000000006</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45">
@@ -1772,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>178.0200000000006</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46">
@@ -1783,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>175.2100000000006</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1830,7 +1549,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -1841,7 +1560,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1852,7 +1571,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06999999999934658</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -1863,7 +1582,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -1874,7 +1593,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>2.779999999999347</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1885,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>76.69000000000065</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1896,7 +1615,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>73.05</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1907,7 +1626,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>82.48500000000067</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
@@ -1918,7 +1637,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>80.65500000000065</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
@@ -1929,7 +1648,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>76.34000000000066</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1940,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>67.64000000000055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1951,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>71.22500000000056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1962,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>73.3450000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1973,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>78.02000000000058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1984,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>75.21000000000058</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2086,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>5.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2097,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>12.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2108,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>8.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2119,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>13.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2130,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>11.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2251,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>15.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2262,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>25.985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2273,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>25.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2284,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>25.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2295,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>26.155</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2309,7 +2028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2444,72 +2163,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" t="n">
-        <v>5</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>3</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" t="n">
-        <v>4</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" t="n">
-        <v>5</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
